--- a/Pivot form multiple sheet.xlsx
+++ b/Pivot form multiple sheet.xlsx
@@ -2,19 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Customer details" sheetId="3" r:id="rId1"/>
-    <sheet name="Sales" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="Customer details" sheetId="3" r:id="rId2"/>
+    <sheet name="Sales" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_NewMicrosoftExcelWorksheet.xlsxCust_details" hidden="1">Cust_details[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_NewMicrosoftExcelWorksheet.xlsxSalesData" hidden="1">SalesData[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_NewMicrosoftExcelWorksheet.xlsxCust_details" hidden="1">[0]!Cust_details</definedName>
+    <definedName name="_xlcn.WorksheetConnection_NewMicrosoftExcelWorksheet.xlsxSalesData" hidden="1">[0]!SalesData</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Pivotformmultiplesheet.xlsxCustomerdetails" hidden="1">Customerdetails[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Pivotformmultiplesheet.xlsxSales" hidden="1">Sales[]</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,11 +28,14 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
       <x15:dataModel>
         <x15:modelTables>
+          <x15:modelTable id="Sales" name="Sales" connection="WorksheetConnection_Pivot form multiple sheet.xlsx!Sales"/>
+          <x15:modelTable id="Customerdetails" name="Customerdetails" connection="WorksheetConnection_Pivot form multiple sheet.xlsx!Customerdetails"/>
           <x15:modelTable id="SalesData" name="SalesData" connection="WorksheetConnection_New Microsoft Excel Worksheet.xlsx!SalesData"/>
           <x15:modelTable id="Cust_details" name="Cust_details" connection="WorksheetConnection_New Microsoft Excel Worksheet.xlsx!Cust_details"/>
         </x15:modelTables>
         <x15:modelRelationships>
           <x15:modelRelationship fromTable="SalesData" fromColumn="Customer ID" toTable="Cust_details" toColumn="Customer ID"/>
+          <x15:modelRelationship fromTable="Sales" fromColumn="Customer ID" toTable="Customerdetails" toColumn="Customer ID"/>
         </x15:modelRelationships>
       </x15:dataModel>
     </ext>
@@ -63,11 +72,29 @@
       </ext>
     </extLst>
   </connection>
+  <connection id="4" name="WorksheetConnection_Pivot form multiple sheet.xlsx!Customerdetails" type="102" refreshedVersion="6" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Customerdetails" autoDelete="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Pivotformmultiplesheet.xlsxCustomerdetails"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="5" name="WorksheetConnection_Pivot form multiple sheet.xlsx!Sales" type="102" refreshedVersion="6" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Sales">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Pivotformmultiplesheet.xlsxSales"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -78,75 +105,88 @@
     <t>Sales Amount</t>
   </si>
   <si>
-    <t>AMIT SAXENA</t>
+    <t>Customer Name</t>
   </si>
   <si>
-    <t>ANKIT ANAND</t>
+    <t>Wajah</t>
   </si>
   <si>
-    <t>ANURAG DASH</t>
+    <t>Waseem</t>
   </si>
   <si>
-    <t>ARPIT SRIVASTAVA</t>
+    <t>Raza</t>
   </si>
   <si>
-    <t>ATUL KUMAR</t>
+    <t>Ramsha</t>
   </si>
   <si>
-    <t>BANOTHU KESHAVA RAO</t>
+    <t>Rafiq</t>
   </si>
   <si>
-    <t>CHANDAN KUMAR</t>
+    <t>Romeesa</t>
   </si>
   <si>
-    <t>DIGRAJ SINGH CHAHAL</t>
+    <t>Sajid</t>
   </si>
   <si>
-    <t>GOURAV GARG</t>
+    <t>Saniya</t>
   </si>
   <si>
-    <t>KONANKI SIVARAM</t>
+    <t>Ayesha</t>
   </si>
   <si>
-    <t>KUMAR SHUBHAM</t>
+    <t>Ayaan</t>
   </si>
   <si>
-    <t>MADHAV GOSWAMI</t>
+    <t>Halima</t>
   </si>
   <si>
-    <t>MD. SHADAB ALAM</t>
+    <t>Abid</t>
   </si>
   <si>
-    <t>MUDIT DHAKAR</t>
+    <t>Sadia</t>
   </si>
   <si>
-    <t>NAVIN KUMAR</t>
+    <t>Saim</t>
   </si>
   <si>
-    <t>NITISH ARYA</t>
+    <t>Khizar</t>
   </si>
   <si>
-    <t>PAWAN KUMAR</t>
+    <t>Nadiya</t>
   </si>
   <si>
-    <t>PRATAP BHANU SOLANKI</t>
+    <t>Anabiya</t>
   </si>
   <si>
-    <t>RAGHAV MISHRA</t>
+    <t>Nitish</t>
   </si>
   <si>
-    <t>Customer Name</t>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Sales Amount</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>habiba</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,10 +203,24 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -179,7 +233,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,27 +280,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -254,7 +331,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
       <font>
         <b val="0"/>
@@ -271,7 +348,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -380,6 +457,14 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -476,7 +561,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="0"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -502,26 +587,1309 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Pivot form multiple sheet.xlsx]Sheet1!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Abid</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ahmed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Anabiya</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ayaan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ayesha</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>habiba</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Halima</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Khizar</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nadiya</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Nitish</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Rafiq</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Ramsha</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Raza</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Romeesa</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sadia</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Saim</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sajid</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Saniya</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Wajah</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Waseem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>41406</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52550</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46196</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47187</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54084</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42428</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45533</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41378</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45673</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42520</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48801</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47566</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47830</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48345</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44276</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD77-4A59-9B80-591CE5B853BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="395713888"/>
+        <c:axId val="395717496"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="395713888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="395717496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="395717496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="395713888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Author" refreshedDate="45612.677621875002" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="2">
+    <cacheField name="[Customerdetails].[Customer Name].[Customer Name]" caption="Customer Name" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems count="20">
+        <s v="Abid"/>
+        <s v="Ahmed"/>
+        <s v="Anabiya"/>
+        <s v="Ayaan"/>
+        <s v="Ayesha"/>
+        <s v="habiba"/>
+        <s v="Halima"/>
+        <s v="Khizar"/>
+        <s v="Nadiya"/>
+        <s v="Nitish"/>
+        <s v="Rafiq"/>
+        <s v="Ramsha"/>
+        <s v="Raza"/>
+        <s v="Romeesa"/>
+        <s v="Sadia"/>
+        <s v="Saim"/>
+        <s v="Sajid"/>
+        <s v="Saniya"/>
+        <s v="Wajah"/>
+        <s v="Waseem"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Sum of Sales Amount 2]" caption="Sum of Sales Amount 2" numFmtId="0" hierarchy="16" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="17">
+    <cacheHierarchy uniqueName="[Cust_details].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[Cust_details].[Customer ID].[All]" allUniqueName="[Cust_details].[Customer ID].[All]" dimensionUniqueName="[Cust_details]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cust_details].[Customer Name]" caption="Customer Name" attribute="1" defaultMemberUniqueName="[Cust_details].[Customer Name].[All]" allUniqueName="[Cust_details].[Customer Name].[All]" dimensionUniqueName="[Cust_details]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Customerdetails].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[Customerdetails].[Customer ID].[All]" allUniqueName="[Customerdetails].[Customer ID].[All]" dimensionUniqueName="[Customerdetails]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Customerdetails].[Customer Name]" caption="Customer Name" attribute="1" defaultMemberUniqueName="[Customerdetails].[Customer Name].[All]" allUniqueName="[Customerdetails].[Customer Name].[All]" dimensionUniqueName="[Customerdetails]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Sales].[Date]" caption="Date" attribute="1" time="1" defaultMemberUniqueName="[Sales].[Date].[All]" allUniqueName="[Sales].[Date].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[Sales].[Customer ID].[All]" allUniqueName="[Sales].[Customer ID].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales].[Sales Amount]" caption="Sales Amount" attribute="1" defaultMemberUniqueName="[Sales].[Sales Amount].[All]" allUniqueName="[Sales].[Sales Amount].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[SalesData].[Date]" caption="Date" attribute="1" time="1" defaultMemberUniqueName="[SalesData].[Date].[All]" allUniqueName="[SalesData].[Date].[All]" dimensionUniqueName="[SalesData]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[SalesData].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[SalesData].[Customer ID].[All]" allUniqueName="[SalesData].[Customer ID].[All]" dimensionUniqueName="[SalesData]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[SalesData].[Sales Amount]" caption="Sales Amount" attribute="1" defaultMemberUniqueName="[SalesData].[Sales Amount].[All]" allUniqueName="[SalesData].[Sales Amount].[All]" dimensionUniqueName="[SalesData]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Cust_details]" caption="__XL_Count Cust_details" measure="1" displayFolder="" measureGroup="Cust_details" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count SalesData]" caption="__XL_Count SalesData" measure="1" displayFolder="" measureGroup="SalesData" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Customerdetails]" caption="__XL_Count Customerdetails" measure="1" displayFolder="" measureGroup="Customerdetails" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Sales]" caption="__XL_Count Sales" measure="1" displayFolder="" measureGroup="Sales" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Sales Amount]" caption="Sum of Sales Amount" measure="1" displayFolder="" measureGroup="SalesData" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="9"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Sales Amount 2]" caption="Sum of Sales Amount 2" measure="1" displayFolder="" measureGroup="Sales" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="5">
+    <dimension name="Cust_details" uniqueName="[Cust_details]" caption="Cust_details"/>
+    <dimension name="Customerdetails" uniqueName="[Customerdetails]" caption="Customerdetails"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Sales" uniqueName="[Sales]" caption="Sales"/>
+    <dimension name="SalesData" uniqueName="[SalesData]" caption="SalesData"/>
+  </dimensions>
+  <measureGroups count="4">
+    <measureGroup name="Cust_details" caption="Cust_details"/>
+    <measureGroup name="Customerdetails" caption="Customerdetails"/>
+    <measureGroup name="Sales" caption="Sales"/>
+    <measureGroup name="SalesData" caption="SalesData"/>
+  </measureGroups>
+  <maps count="6">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="2" dimension="1"/>
+    <map measureGroup="2" dimension="3"/>
+    <map measureGroup="3" dimension="0"/>
+    <map measureGroup="3" dimension="4"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="21">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="21">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Sales Amount" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="17">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="3"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[Customerdetails]"/>
+        <x15:activeTabTopLevelEntity name="[Sales]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Cust_details" displayName="Cust_details" ref="C3:D22" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="C3:D22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Customerdetails" displayName="Customerdetails" ref="C3:D23" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="C3:D23"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Customer ID" dataDxfId="5"/>
-    <tableColumn id="2" name="Customer Name" dataDxfId="4"/>
+    <tableColumn id="1" name="Customer ID" dataDxfId="6"/>
+    <tableColumn id="2" name="Customer Name" dataDxfId="5"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="SalesData" displayName="SalesData" ref="C3:E122" totalsRowShown="0" tableBorderDxfId="3">
-  <autoFilter ref="C3:E122"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Sales" displayName="Sales" ref="C3:E123" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="C3:E123"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Date" dataDxfId="2"/>
     <tableColumn id="2" name="Customer ID" dataDxfId="1"/>
     <tableColumn id="3" name="Sales Amount" dataDxfId="0" dataCellStyle="Comma"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium25" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -788,10 +2156,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:D22"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A3:B24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="12">
+        <v>41406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="12">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="12">
+        <v>52550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="12">
+        <v>43536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="12">
+        <v>42108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="12">
+        <v>52333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="12">
+        <v>44799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="12">
+        <v>46196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="12">
+        <v>47187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="12">
+        <v>54084</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="12">
+        <v>42428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="12">
+        <v>45533</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="12">
+        <v>41378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="12">
+        <v>45673</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12">
+        <v>42520</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="12">
+        <v>48801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="12">
+        <v>47566</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="12">
+        <v>47830</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="12">
+        <v>48345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="12">
+        <v>44276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="12">
+        <v>884849</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="C3:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -800,180 +2366,190 @@
     <col min="4" max="4" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="3:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <v>46897</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <v>46898</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>4</v>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C6" s="7">
+      <c r="C6" s="3">
         <v>46899</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>5</v>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C7" s="7">
+      <c r="C7" s="3">
         <v>46900</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>6</v>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <v>46901</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>7</v>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C9" s="7">
+      <c r="C9" s="3">
         <v>46902</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>8</v>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C10" s="7">
+      <c r="C10" s="3">
         <v>46903</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>9</v>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C11" s="7">
+      <c r="C11" s="3">
         <v>46904</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>10</v>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C12" s="7">
+      <c r="C12" s="3">
         <v>46905</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C13" s="7">
+      <c r="C13" s="3">
         <v>46906</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>12</v>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C14" s="7">
+      <c r="C14" s="3">
         <v>46907</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>13</v>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C15" s="7">
+      <c r="C15" s="3">
         <v>46908</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>14</v>
+      <c r="D15" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C16" s="7">
+      <c r="C16" s="3">
         <v>46909</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>15</v>
+      <c r="D16" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C17" s="7">
+      <c r="C17" s="3">
         <v>46910</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C18" s="7">
+      <c r="C18" s="3">
         <v>46911</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="3">
+        <v>46912</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C19" s="7">
-        <v>46912</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C20" s="7">
+      <c r="C20" s="3">
         <v>46913</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C21" s="7">
+      <c r="C21" s="3">
         <v>46914</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C22" s="7">
+      <c r="C22" s="3">
         <v>46915</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="13">
+        <v>46916</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E122"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="C3:E123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -983,22 +2559,22 @@
     <col min="5" max="5" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="3:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <v>45017</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <v>46897</v>
       </c>
       <c r="E4" s="6">
@@ -1006,10 +2582,10 @@
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="4">
+      <c r="C5" s="1">
         <v>45018</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="2">
         <v>46898</v>
       </c>
       <c r="E5" s="6">
@@ -1017,10 +2593,10 @@
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <v>45019</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="2">
         <v>46899</v>
       </c>
       <c r="E6" s="6">
@@ -1028,10 +2604,10 @@
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="4">
+      <c r="C7" s="1">
         <v>45020</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="2">
         <v>46900</v>
       </c>
       <c r="E7" s="6">
@@ -1039,10 +2615,10 @@
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>45021</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="2">
         <v>46901</v>
       </c>
       <c r="E8" s="6">
@@ -1050,10 +2626,10 @@
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="4">
+      <c r="C9" s="1">
         <v>45022</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="2">
         <v>46902</v>
       </c>
       <c r="E9" s="6">
@@ -1061,10 +2637,10 @@
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="4">
+      <c r="C10" s="1">
         <v>45023</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="2">
         <v>46903</v>
       </c>
       <c r="E10" s="6">
@@ -1072,10 +2648,10 @@
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="4">
+      <c r="C11" s="1">
         <v>45024</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="2">
         <v>46904</v>
       </c>
       <c r="E11" s="6">
@@ -1083,10 +2659,10 @@
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="4">
+      <c r="C12" s="1">
         <v>45025</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="2">
         <v>46905</v>
       </c>
       <c r="E12" s="6">
@@ -1094,10 +2670,10 @@
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="4">
+      <c r="C13" s="1">
         <v>45026</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="2">
         <v>46906</v>
       </c>
       <c r="E13" s="6">
@@ -1105,10 +2681,10 @@
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="4">
+      <c r="C14" s="1">
         <v>45027</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="2">
         <v>46907</v>
       </c>
       <c r="E14" s="6">
@@ -1116,10 +2692,10 @@
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C15" s="4">
+      <c r="C15" s="1">
         <v>45028</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="2">
         <v>46908</v>
       </c>
       <c r="E15" s="6">
@@ -1127,10 +2703,10 @@
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C16" s="4">
+      <c r="C16" s="1">
         <v>45029</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="2">
         <v>46909</v>
       </c>
       <c r="E16" s="6">
@@ -1138,10 +2714,10 @@
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C17" s="4">
+      <c r="C17" s="1">
         <v>45030</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="2">
         <v>46910</v>
       </c>
       <c r="E17" s="6">
@@ -1149,10 +2725,10 @@
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="4">
+      <c r="C18" s="1">
         <v>45031</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="2">
         <v>46911</v>
       </c>
       <c r="E18" s="6">
@@ -1160,10 +2736,10 @@
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="4">
+      <c r="C19" s="1">
         <v>45032</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="2">
         <v>46912</v>
       </c>
       <c r="E19" s="6">
@@ -1171,10 +2747,10 @@
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="4">
+      <c r="C20" s="1">
         <v>45033</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="2">
         <v>46913</v>
       </c>
       <c r="E20" s="6">
@@ -1182,10 +2758,10 @@
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="4">
+      <c r="C21" s="1">
         <v>45034</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="2">
         <v>46914</v>
       </c>
       <c r="E21" s="6">
@@ -1193,10 +2769,10 @@
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="4">
+      <c r="C22" s="1">
         <v>45035</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="2">
         <v>46915</v>
       </c>
       <c r="E22" s="6">
@@ -1204,10 +2780,10 @@
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="4">
+      <c r="C23" s="1">
         <v>45036</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="2">
         <v>46897</v>
       </c>
       <c r="E23" s="6">
@@ -1215,10 +2791,10 @@
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C24" s="4">
+      <c r="C24" s="1">
         <v>45037</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="2">
         <v>46898</v>
       </c>
       <c r="E24" s="6">
@@ -1226,10 +2802,10 @@
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="4">
+      <c r="C25" s="1">
         <v>45038</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="2">
         <v>46899</v>
       </c>
       <c r="E25" s="6">
@@ -1237,10 +2813,10 @@
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C26" s="4">
+      <c r="C26" s="1">
         <v>45039</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="2">
         <v>46900</v>
       </c>
       <c r="E26" s="6">
@@ -1248,10 +2824,10 @@
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C27" s="4">
+      <c r="C27" s="1">
         <v>45040</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="2">
         <v>46901</v>
       </c>
       <c r="E27" s="6">
@@ -1259,10 +2835,10 @@
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C28" s="4">
+      <c r="C28" s="1">
         <v>45041</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="2">
         <v>46902</v>
       </c>
       <c r="E28" s="6">
@@ -1270,10 +2846,10 @@
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C29" s="4">
+      <c r="C29" s="1">
         <v>45042</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="2">
         <v>46903</v>
       </c>
       <c r="E29" s="6">
@@ -1281,10 +2857,10 @@
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C30" s="4">
+      <c r="C30" s="1">
         <v>45043</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="2">
         <v>46904</v>
       </c>
       <c r="E30" s="6">
@@ -1292,10 +2868,10 @@
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C31" s="4">
+      <c r="C31" s="1">
         <v>45044</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="2">
         <v>46905</v>
       </c>
       <c r="E31" s="6">
@@ -1303,10 +2879,10 @@
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C32" s="4">
+      <c r="C32" s="1">
         <v>45045</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="2">
         <v>46906</v>
       </c>
       <c r="E32" s="6">
@@ -1314,10 +2890,10 @@
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C33" s="4">
+      <c r="C33" s="1">
         <v>45046</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="2">
         <v>46907</v>
       </c>
       <c r="E33" s="6">
@@ -1325,10 +2901,10 @@
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C34" s="4">
+      <c r="C34" s="1">
         <v>45047</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="2">
         <v>46908</v>
       </c>
       <c r="E34" s="6">
@@ -1336,10 +2912,10 @@
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C35" s="4">
+      <c r="C35" s="1">
         <v>45048</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="2">
         <v>46909</v>
       </c>
       <c r="E35" s="6">
@@ -1347,10 +2923,10 @@
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C36" s="4">
+      <c r="C36" s="1">
         <v>45049</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="2">
         <v>46910</v>
       </c>
       <c r="E36" s="6">
@@ -1358,10 +2934,10 @@
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C37" s="4">
+      <c r="C37" s="1">
         <v>45050</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="2">
         <v>46911</v>
       </c>
       <c r="E37" s="6">
@@ -1369,10 +2945,10 @@
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C38" s="4">
+      <c r="C38" s="1">
         <v>45051</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="2">
         <v>46912</v>
       </c>
       <c r="E38" s="6">
@@ -1380,10 +2956,10 @@
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C39" s="4">
+      <c r="C39" s="1">
         <v>45052</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="2">
         <v>46913</v>
       </c>
       <c r="E39" s="6">
@@ -1391,10 +2967,10 @@
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C40" s="4">
+      <c r="C40" s="1">
         <v>45053</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="2">
         <v>46914</v>
       </c>
       <c r="E40" s="6">
@@ -1402,10 +2978,10 @@
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C41" s="4">
+      <c r="C41" s="1">
         <v>45054</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="2">
         <v>46915</v>
       </c>
       <c r="E41" s="6">
@@ -1413,10 +2989,10 @@
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C42" s="4">
+      <c r="C42" s="1">
         <v>45055</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="2">
         <v>46897</v>
       </c>
       <c r="E42" s="6">
@@ -1424,10 +3000,10 @@
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C43" s="4">
+      <c r="C43" s="1">
         <v>45056</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="2">
         <v>46898</v>
       </c>
       <c r="E43" s="6">
@@ -1435,10 +3011,10 @@
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C44" s="4">
+      <c r="C44" s="1">
         <v>45057</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="2">
         <v>46899</v>
       </c>
       <c r="E44" s="6">
@@ -1446,10 +3022,10 @@
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C45" s="4">
+      <c r="C45" s="1">
         <v>45058</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="2">
         <v>46900</v>
       </c>
       <c r="E45" s="6">
@@ -1457,10 +3033,10 @@
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C46" s="4">
+      <c r="C46" s="1">
         <v>45059</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="2">
         <v>46901</v>
       </c>
       <c r="E46" s="6">
@@ -1468,10 +3044,10 @@
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C47" s="4">
+      <c r="C47" s="1">
         <v>45060</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="2">
         <v>46902</v>
       </c>
       <c r="E47" s="6">
@@ -1479,10 +3055,10 @@
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C48" s="4">
+      <c r="C48" s="1">
         <v>45061</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="2">
         <v>46903</v>
       </c>
       <c r="E48" s="6">
@@ -1490,10 +3066,10 @@
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C49" s="4">
+      <c r="C49" s="1">
         <v>45062</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="2">
         <v>46904</v>
       </c>
       <c r="E49" s="6">
@@ -1501,10 +3077,10 @@
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C50" s="4">
+      <c r="C50" s="1">
         <v>45063</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="2">
         <v>46905</v>
       </c>
       <c r="E50" s="6">
@@ -1512,10 +3088,10 @@
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C51" s="4">
+      <c r="C51" s="1">
         <v>45064</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="2">
         <v>46906</v>
       </c>
       <c r="E51" s="6">
@@ -1523,10 +3099,10 @@
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C52" s="4">
+      <c r="C52" s="1">
         <v>45065</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="2">
         <v>46907</v>
       </c>
       <c r="E52" s="6">
@@ -1534,10 +3110,10 @@
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C53" s="4">
+      <c r="C53" s="1">
         <v>45066</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="2">
         <v>46908</v>
       </c>
       <c r="E53" s="6">
@@ -1545,10 +3121,10 @@
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C54" s="4">
+      <c r="C54" s="1">
         <v>45067</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="2">
         <v>46909</v>
       </c>
       <c r="E54" s="6">
@@ -1556,10 +3132,10 @@
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C55" s="4">
+      <c r="C55" s="1">
         <v>45068</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="2">
         <v>46910</v>
       </c>
       <c r="E55" s="6">
@@ -1567,10 +3143,10 @@
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C56" s="4">
+      <c r="C56" s="1">
         <v>45069</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="2">
         <v>46911</v>
       </c>
       <c r="E56" s="6">
@@ -1578,10 +3154,10 @@
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C57" s="4">
+      <c r="C57" s="1">
         <v>45070</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="2">
         <v>46912</v>
       </c>
       <c r="E57" s="6">
@@ -1589,10 +3165,10 @@
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C58" s="4">
+      <c r="C58" s="1">
         <v>45071</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="2">
         <v>46913</v>
       </c>
       <c r="E58" s="6">
@@ -1600,10 +3176,10 @@
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C59" s="4">
+      <c r="C59" s="1">
         <v>45072</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="2">
         <v>46914</v>
       </c>
       <c r="E59" s="6">
@@ -1611,10 +3187,10 @@
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C60" s="4">
+      <c r="C60" s="1">
         <v>45073</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="2">
         <v>46915</v>
       </c>
       <c r="E60" s="6">
@@ -1622,10 +3198,10 @@
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C61" s="4">
+      <c r="C61" s="1">
         <v>45074</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="2">
         <v>46897</v>
       </c>
       <c r="E61" s="6">
@@ -1633,10 +3209,10 @@
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C62" s="4">
+      <c r="C62" s="1">
         <v>45075</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="2">
         <v>46898</v>
       </c>
       <c r="E62" s="6">
@@ -1644,10 +3220,10 @@
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C63" s="4">
+      <c r="C63" s="1">
         <v>45076</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="2">
         <v>46899</v>
       </c>
       <c r="E63" s="6">
@@ -1655,10 +3231,10 @@
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C64" s="4">
+      <c r="C64" s="1">
         <v>45077</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="2">
         <v>46900</v>
       </c>
       <c r="E64" s="6">
@@ -1666,10 +3242,10 @@
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C65" s="4">
+      <c r="C65" s="1">
         <v>45078</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="2">
         <v>46901</v>
       </c>
       <c r="E65" s="6">
@@ -1677,10 +3253,10 @@
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C66" s="4">
+      <c r="C66" s="1">
         <v>45079</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="2">
         <v>46902</v>
       </c>
       <c r="E66" s="6">
@@ -1688,10 +3264,10 @@
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C67" s="4">
+      <c r="C67" s="1">
         <v>45080</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="2">
         <v>46903</v>
       </c>
       <c r="E67" s="6">
@@ -1699,10 +3275,10 @@
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C68" s="4">
+      <c r="C68" s="1">
         <v>45081</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="2">
         <v>46904</v>
       </c>
       <c r="E68" s="6">
@@ -1710,10 +3286,10 @@
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C69" s="4">
+      <c r="C69" s="1">
         <v>45082</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="2">
         <v>46905</v>
       </c>
       <c r="E69" s="6">
@@ -1721,10 +3297,10 @@
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C70" s="4">
+      <c r="C70" s="1">
         <v>45083</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="2">
         <v>46906</v>
       </c>
       <c r="E70" s="6">
@@ -1732,10 +3308,10 @@
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C71" s="4">
+      <c r="C71" s="1">
         <v>45084</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="2">
         <v>46907</v>
       </c>
       <c r="E71" s="6">
@@ -1743,10 +3319,10 @@
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C72" s="4">
+      <c r="C72" s="1">
         <v>45085</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="2">
         <v>46908</v>
       </c>
       <c r="E72" s="6">
@@ -1754,10 +3330,10 @@
       </c>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C73" s="4">
+      <c r="C73" s="1">
         <v>45086</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="2">
         <v>46909</v>
       </c>
       <c r="E73" s="6">
@@ -1765,10 +3341,10 @@
       </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C74" s="4">
+      <c r="C74" s="1">
         <v>45087</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="2">
         <v>46910</v>
       </c>
       <c r="E74" s="6">
@@ -1776,10 +3352,10 @@
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C75" s="4">
+      <c r="C75" s="1">
         <v>45088</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="2">
         <v>46911</v>
       </c>
       <c r="E75" s="6">
@@ -1787,10 +3363,10 @@
       </c>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C76" s="4">
+      <c r="C76" s="1">
         <v>45089</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="2">
         <v>46912</v>
       </c>
       <c r="E76" s="6">
@@ -1798,10 +3374,10 @@
       </c>
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C77" s="4">
+      <c r="C77" s="1">
         <v>45090</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="2">
         <v>46913</v>
       </c>
       <c r="E77" s="6">
@@ -1809,10 +3385,10 @@
       </c>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C78" s="4">
+      <c r="C78" s="1">
         <v>45091</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="2">
         <v>46914</v>
       </c>
       <c r="E78" s="6">
@@ -1820,10 +3396,10 @@
       </c>
     </row>
     <row r="79" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C79" s="4">
+      <c r="C79" s="1">
         <v>45092</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="2">
         <v>46915</v>
       </c>
       <c r="E79" s="6">
@@ -1831,10 +3407,10 @@
       </c>
     </row>
     <row r="80" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C80" s="4">
+      <c r="C80" s="1">
         <v>45093</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="2">
         <v>46897</v>
       </c>
       <c r="E80" s="6">
@@ -1842,10 +3418,10 @@
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C81" s="4">
+      <c r="C81" s="1">
         <v>45094</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="2">
         <v>46898</v>
       </c>
       <c r="E81" s="6">
@@ -1853,10 +3429,10 @@
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C82" s="4">
+      <c r="C82" s="1">
         <v>45095</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="2">
         <v>46899</v>
       </c>
       <c r="E82" s="6">
@@ -1864,10 +3440,10 @@
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C83" s="4">
+      <c r="C83" s="1">
         <v>45096</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="2">
         <v>46900</v>
       </c>
       <c r="E83" s="6">
@@ -1875,10 +3451,10 @@
       </c>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C84" s="4">
+      <c r="C84" s="1">
         <v>45097</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="2">
         <v>46901</v>
       </c>
       <c r="E84" s="6">
@@ -1886,10 +3462,10 @@
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C85" s="4">
+      <c r="C85" s="1">
         <v>45098</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="2">
         <v>46902</v>
       </c>
       <c r="E85" s="6">
@@ -1897,10 +3473,10 @@
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C86" s="4">
+      <c r="C86" s="1">
         <v>45099</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="2">
         <v>46903</v>
       </c>
       <c r="E86" s="6">
@@ -1908,10 +3484,10 @@
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C87" s="4">
+      <c r="C87" s="1">
         <v>45100</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="2">
         <v>46904</v>
       </c>
       <c r="E87" s="6">
@@ -1919,10 +3495,10 @@
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C88" s="4">
+      <c r="C88" s="1">
         <v>45101</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="2">
         <v>46905</v>
       </c>
       <c r="E88" s="6">
@@ -1930,10 +3506,10 @@
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C89" s="4">
+      <c r="C89" s="1">
         <v>45102</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="2">
         <v>46906</v>
       </c>
       <c r="E89" s="6">
@@ -1941,10 +3517,10 @@
       </c>
     </row>
     <row r="90" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C90" s="4">
+      <c r="C90" s="1">
         <v>45103</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="2">
         <v>46907</v>
       </c>
       <c r="E90" s="6">
@@ -1952,10 +3528,10 @@
       </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C91" s="4">
+      <c r="C91" s="1">
         <v>45104</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="2">
         <v>46908</v>
       </c>
       <c r="E91" s="6">
@@ -1963,10 +3539,10 @@
       </c>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C92" s="4">
+      <c r="C92" s="1">
         <v>45105</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="2">
         <v>46909</v>
       </c>
       <c r="E92" s="6">
@@ -1974,10 +3550,10 @@
       </c>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C93" s="4">
+      <c r="C93" s="1">
         <v>45106</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93" s="2">
         <v>46910</v>
       </c>
       <c r="E93" s="6">
@@ -1985,10 +3561,10 @@
       </c>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C94" s="4">
+      <c r="C94" s="1">
         <v>45107</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D94" s="2">
         <v>46911</v>
       </c>
       <c r="E94" s="6">
@@ -1996,10 +3572,10 @@
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C95" s="4">
+      <c r="C95" s="1">
         <v>45108</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="2">
         <v>46912</v>
       </c>
       <c r="E95" s="6">
@@ -2007,10 +3583,10 @@
       </c>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C96" s="4">
+      <c r="C96" s="1">
         <v>45109</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96" s="2">
         <v>46913</v>
       </c>
       <c r="E96" s="6">
@@ -2018,10 +3594,10 @@
       </c>
     </row>
     <row r="97" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C97" s="4">
+      <c r="C97" s="1">
         <v>45110</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97" s="2">
         <v>46914</v>
       </c>
       <c r="E97" s="6">
@@ -2029,10 +3605,10 @@
       </c>
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C98" s="4">
+      <c r="C98" s="1">
         <v>45111</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D98" s="2">
         <v>46915</v>
       </c>
       <c r="E98" s="6">
@@ -2040,10 +3616,10 @@
       </c>
     </row>
     <row r="99" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C99" s="4">
+      <c r="C99" s="1">
         <v>45112</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99" s="2">
         <v>46911</v>
       </c>
       <c r="E99" s="6">
@@ -2051,10 +3627,10 @@
       </c>
     </row>
     <row r="100" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C100" s="4">
+      <c r="C100" s="1">
         <v>45113</v>
       </c>
-      <c r="D100" s="5">
+      <c r="D100" s="2">
         <v>46912</v>
       </c>
       <c r="E100" s="6">
@@ -2062,10 +3638,10 @@
       </c>
     </row>
     <row r="101" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C101" s="4">
+      <c r="C101" s="1">
         <v>45114</v>
       </c>
-      <c r="D101" s="5">
+      <c r="D101" s="2">
         <v>46913</v>
       </c>
       <c r="E101" s="6">
@@ -2073,10 +3649,10 @@
       </c>
     </row>
     <row r="102" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C102" s="4">
+      <c r="C102" s="1">
         <v>45115</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D102" s="2">
         <v>46914</v>
       </c>
       <c r="E102" s="6">
@@ -2084,10 +3660,10 @@
       </c>
     </row>
     <row r="103" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C103" s="4">
+      <c r="C103" s="1">
         <v>45116</v>
       </c>
-      <c r="D103" s="5">
+      <c r="D103" s="2">
         <v>46915</v>
       </c>
       <c r="E103" s="6">
@@ -2095,10 +3671,10 @@
       </c>
     </row>
     <row r="104" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C104" s="4">
+      <c r="C104" s="1">
         <v>45117</v>
       </c>
-      <c r="D104" s="5">
+      <c r="D104" s="2">
         <v>46897</v>
       </c>
       <c r="E104" s="6">
@@ -2106,10 +3682,10 @@
       </c>
     </row>
     <row r="105" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C105" s="4">
+      <c r="C105" s="1">
         <v>45118</v>
       </c>
-      <c r="D105" s="5">
+      <c r="D105" s="2">
         <v>46898</v>
       </c>
       <c r="E105" s="6">
@@ -2117,10 +3693,10 @@
       </c>
     </row>
     <row r="106" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C106" s="4">
+      <c r="C106" s="1">
         <v>45119</v>
       </c>
-      <c r="D106" s="5">
+      <c r="D106" s="2">
         <v>46899</v>
       </c>
       <c r="E106" s="6">
@@ -2128,10 +3704,10 @@
       </c>
     </row>
     <row r="107" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C107" s="4">
+      <c r="C107" s="1">
         <v>45120</v>
       </c>
-      <c r="D107" s="5">
+      <c r="D107" s="2">
         <v>46900</v>
       </c>
       <c r="E107" s="6">
@@ -2139,10 +3715,10 @@
       </c>
     </row>
     <row r="108" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C108" s="4">
+      <c r="C108" s="1">
         <v>45121</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="2">
         <v>46901</v>
       </c>
       <c r="E108" s="6">
@@ -2150,10 +3726,10 @@
       </c>
     </row>
     <row r="109" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C109" s="4">
+      <c r="C109" s="1">
         <v>45122</v>
       </c>
-      <c r="D109" s="5">
+      <c r="D109" s="2">
         <v>46902</v>
       </c>
       <c r="E109" s="6">
@@ -2161,10 +3737,10 @@
       </c>
     </row>
     <row r="110" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C110" s="4">
+      <c r="C110" s="1">
         <v>45123</v>
       </c>
-      <c r="D110" s="5">
+      <c r="D110" s="2">
         <v>46903</v>
       </c>
       <c r="E110" s="6">
@@ -2172,10 +3748,10 @@
       </c>
     </row>
     <row r="111" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C111" s="4">
+      <c r="C111" s="1">
         <v>45124</v>
       </c>
-      <c r="D111" s="5">
+      <c r="D111" s="2">
         <v>46904</v>
       </c>
       <c r="E111" s="6">
@@ -2183,10 +3759,10 @@
       </c>
     </row>
     <row r="112" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C112" s="4">
+      <c r="C112" s="1">
         <v>45125</v>
       </c>
-      <c r="D112" s="5">
+      <c r="D112" s="2">
         <v>46905</v>
       </c>
       <c r="E112" s="6">
@@ -2194,10 +3770,10 @@
       </c>
     </row>
     <row r="113" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C113" s="4">
+      <c r="C113" s="1">
         <v>45126</v>
       </c>
-      <c r="D113" s="5">
+      <c r="D113" s="2">
         <v>46906</v>
       </c>
       <c r="E113" s="6">
@@ -2205,10 +3781,10 @@
       </c>
     </row>
     <row r="114" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C114" s="4">
+      <c r="C114" s="1">
         <v>45127</v>
       </c>
-      <c r="D114" s="5">
+      <c r="D114" s="2">
         <v>46907</v>
       </c>
       <c r="E114" s="6">
@@ -2216,10 +3792,10 @@
       </c>
     </row>
     <row r="115" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C115" s="4">
+      <c r="C115" s="1">
         <v>45128</v>
       </c>
-      <c r="D115" s="5">
+      <c r="D115" s="2">
         <v>46908</v>
       </c>
       <c r="E115" s="6">
@@ -2227,10 +3803,10 @@
       </c>
     </row>
     <row r="116" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C116" s="4">
+      <c r="C116" s="1">
         <v>45129</v>
       </c>
-      <c r="D116" s="5">
+      <c r="D116" s="2">
         <v>46909</v>
       </c>
       <c r="E116" s="6">
@@ -2238,10 +3814,10 @@
       </c>
     </row>
     <row r="117" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C117" s="4">
+      <c r="C117" s="1">
         <v>45130</v>
       </c>
-      <c r="D117" s="5">
+      <c r="D117" s="2">
         <v>46910</v>
       </c>
       <c r="E117" s="6">
@@ -2249,10 +3825,10 @@
       </c>
     </row>
     <row r="118" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C118" s="4">
+      <c r="C118" s="1">
         <v>45131</v>
       </c>
-      <c r="D118" s="5">
+      <c r="D118" s="2">
         <v>46911</v>
       </c>
       <c r="E118" s="6">
@@ -2260,10 +3836,10 @@
       </c>
     </row>
     <row r="119" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C119" s="4">
+      <c r="C119" s="1">
         <v>45132</v>
       </c>
-      <c r="D119" s="5">
+      <c r="D119" s="2">
         <v>46912</v>
       </c>
       <c r="E119" s="6">
@@ -2271,10 +3847,10 @@
       </c>
     </row>
     <row r="120" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C120" s="4">
+      <c r="C120" s="1">
         <v>45133</v>
       </c>
-      <c r="D120" s="5">
+      <c r="D120" s="2">
         <v>46913</v>
       </c>
       <c r="E120" s="6">
@@ -2282,10 +3858,10 @@
       </c>
     </row>
     <row r="121" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C121" s="4">
+      <c r="C121" s="1">
         <v>45134</v>
       </c>
-      <c r="D121" s="5">
+      <c r="D121" s="2">
         <v>46914</v>
       </c>
       <c r="E121" s="6">
@@ -2293,20 +3869,30 @@
       </c>
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C122" s="4">
+      <c r="C122" s="1">
         <v>45135</v>
       </c>
-      <c r="D122" s="5">
+      <c r="D122" s="2">
         <v>46915</v>
       </c>
       <c r="E122" s="6">
         <v>5283</v>
       </c>
     </row>
+    <row r="123" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C123" s="15"/>
+      <c r="D123" s="14">
+        <v>46916</v>
+      </c>
+      <c r="E123" s="16">
+        <v>6300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>